--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/147.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/147.xlsx
@@ -479,13 +479,13 @@
         <v>-2.302174502142055</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.921418581705313</v>
+        <v>-5.314678162500567</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.573074670747539</v>
+        <v>-2.45973282455185</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.416721695702382</v>
+        <v>-2.286842874717136</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.043979971923321</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.669099290869483</v>
+        <v>-6.108075974877259</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.429836547560665</v>
+        <v>-2.276717741495756</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.891476131962242</v>
+        <v>-1.612365265371284</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.702508454373179</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.207457171026689</v>
+        <v>-6.638611444047402</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.809247925467599</v>
+        <v>-2.733101643515399</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.858201551226019</v>
+        <v>-1.692427641823883</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.299564556128825</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.906428704775786</v>
+        <v>-7.380870244596163</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.294694619745402</v>
+        <v>-2.115810747491851</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.903544736351004</v>
+        <v>-0.5368717567735998</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.8425931812539258</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.129780448049578</v>
+        <v>-8.765339209169138</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.919284803021254</v>
+        <v>-2.904764452626516</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.099606225169244</v>
+        <v>0.3355372955793043</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3453560012056962</v>
       </c>
       <c r="E7" t="n">
-        <v>-10.15648655712232</v>
+        <v>-9.855436181278296</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.882636807546859</v>
+        <v>-2.86919692766971</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.7402984434990638</v>
+        <v>0.6806914023697658</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1799469893799309</v>
       </c>
       <c r="E8" t="n">
-        <v>-10.73921217459678</v>
+        <v>-10.44982696913721</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.039231697494145</v>
+        <v>-3.074730776354815</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1889455830895975</v>
+        <v>1.253497224911255</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.7197352785877581</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.46861777609242</v>
+        <v>-11.24149407308302</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.872355226105737</v>
+        <v>-2.90195327367804</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3348235005767347</v>
+        <v>1.743331711914331</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>1.262917525225226</v>
       </c>
       <c r="E10" t="n">
-        <v>-11.8482736043427</v>
+        <v>-11.59276921647086</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.902774626831682</v>
+        <v>-2.944160069960117</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08498547166364705</v>
+        <v>1.38624353936173</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>1.798342498169335</v>
       </c>
       <c r="E11" t="n">
-        <v>-12.5946489486734</v>
+        <v>-12.3582899116924</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.01569112942995</v>
+        <v>-3.088708446987324</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6404939879099911</v>
+        <v>1.943487653045828</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>2.315025699342711</v>
       </c>
       <c r="E12" t="n">
-        <v>-13.51998150036066</v>
+        <v>-13.35290946869758</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.848751100952272</v>
+        <v>-2.936586998323266</v>
       </c>
       <c r="G12" t="n">
-        <v>1.078079658526347</v>
+        <v>2.301959414541766</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.809430116107302</v>
       </c>
       <c r="E13" t="n">
-        <v>-14.37053669201846</v>
+        <v>-14.20490202837425</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.070164443941116</v>
+        <v>-3.242237929629055</v>
       </c>
       <c r="G13" t="n">
-        <v>1.562404234790409</v>
+        <v>2.71306622396691</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.276399391309308</v>
       </c>
       <c r="E14" t="n">
-        <v>-14.85141940744821</v>
+        <v>-14.62962961093061</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.052559130213356</v>
+        <v>-3.224833065182838</v>
       </c>
       <c r="G14" t="n">
-        <v>2.316699770245515</v>
+        <v>3.570964703938811</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>3.71390596450448</v>
       </c>
       <c r="E15" t="n">
-        <v>-15.69610290185884</v>
+        <v>-15.49614741000889</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.769915865223269</v>
+        <v>-2.945064536230496</v>
       </c>
       <c r="G15" t="n">
-        <v>2.883893012903786</v>
+        <v>4.107303424259982</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>4.121303715327975</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.85232622728424</v>
+        <v>-15.51701369131688</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.575059607535506</v>
+        <v>-2.76555487109798</v>
       </c>
       <c r="G16" t="n">
-        <v>3.153042618941187</v>
+        <v>4.372893833298269</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>4.498976211228501</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.09238859602915</v>
+        <v>-16.82011491460379</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.318953871819034</v>
+        <v>-2.526066869722152</v>
       </c>
       <c r="G17" t="n">
-        <v>3.615298218207996</v>
+        <v>4.876769548023124</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>4.845884533176037</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.05866169121995</v>
+        <v>-17.77500151280155</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.239522177252267</v>
+        <v>-2.473764274259895</v>
       </c>
       <c r="G18" t="n">
-        <v>3.68606659260659</v>
+        <v>4.920526159482013</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>5.164733324262032</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.76216533433468</v>
+        <v>-18.43253871335354</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.516555397800352</v>
+        <v>-1.691234724148356</v>
       </c>
       <c r="G19" t="n">
-        <v>3.87583828315276</v>
+        <v>5.114424171823861</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>5.458804994879081</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.58046285868457</v>
+        <v>-19.26563526148958</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.275483358199643</v>
+        <v>-1.452167177363082</v>
       </c>
       <c r="G20" t="n">
-        <v>3.539215493345065</v>
+        <v>4.760929419318442</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>5.730625772668985</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.46195079678933</v>
+        <v>-20.23767738478335</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6129495926296633</v>
+        <v>-0.7454612347505261</v>
       </c>
       <c r="G21" t="n">
-        <v>3.035628230025358</v>
+        <v>4.211991728301231</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>5.981375639450188</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.37935826834532</v>
+        <v>-21.23754284615672</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.07682109960377007</v>
+        <v>-0.1838414599205383</v>
       </c>
       <c r="G22" t="n">
-        <v>2.422414765728817</v>
+        <v>3.522411976743479</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>6.210884142156904</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.12590237435072</v>
+        <v>-20.80297369277725</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3962294268251865</v>
+        <v>0.3577089417207636</v>
       </c>
       <c r="G23" t="n">
-        <v>2.172557180788262</v>
+        <v>3.217665511708069</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>6.416027226648907</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.60799756348347</v>
+        <v>-21.34852819104256</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9048230331766147</v>
+        <v>0.9617359621143716</v>
       </c>
       <c r="G24" t="n">
-        <v>1.369088014265725</v>
+        <v>2.298786449085139</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>6.592557426680947</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.11600937801773</v>
+        <v>-21.88054502929338</v>
       </c>
       <c r="F25" t="n">
-        <v>1.448881495340644</v>
+        <v>1.571576011672742</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6146555866183456</v>
+        <v>1.452792700834176</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>6.739503187960989</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.4396909666487</v>
+        <v>-22.2734353991324</v>
       </c>
       <c r="F26" t="n">
-        <v>1.564134943221297</v>
+        <v>1.66718542996213</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.04398164047870236</v>
+        <v>0.7254502602363722</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>6.85668399014854</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.03260527443381</v>
+        <v>-22.96656945868239</v>
       </c>
       <c r="F27" t="n">
-        <v>1.752366596604389</v>
+        <v>1.890510374635938</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.7900783114179919</v>
+        <v>-0.1458392095440084</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>6.944133051100269</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.82309177415904</v>
+        <v>-22.70215241129216</v>
       </c>
       <c r="F28" t="n">
-        <v>1.842578551312704</v>
+        <v>2.027691018314705</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.525428945263802</v>
+        <v>-1.0199643033072</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>7.003257769725418</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.75806309382221</v>
+        <v>-22.64658884824968</v>
       </c>
       <c r="F29" t="n">
-        <v>1.618862486089543</v>
+        <v>1.758468077174299</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.090774143326379</v>
+        <v>-1.695141040635021</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>7.036930470381042</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.51673193685755</v>
+        <v>-22.4199198228789</v>
       </c>
       <c r="F30" t="n">
-        <v>1.450768651991273</v>
+        <v>1.556292976206765</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.414081631994248</v>
+        <v>-3.242809943432484</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>7.046545367717704</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.50288138040358</v>
+        <v>-22.42870047921188</v>
       </c>
       <c r="F31" t="n">
-        <v>1.537020511137387</v>
+        <v>1.694676315574793</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.645517439060268</v>
+        <v>-3.481168584222055</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>7.038455765396448</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.31901561015264</v>
+        <v>-22.2335362140915</v>
       </c>
       <c r="F32" t="n">
-        <v>1.550685285330414</v>
+        <v>1.698792859356735</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.576736355015292</v>
+        <v>-4.530735689404489</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>7.02201146739417</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.97963542047201</v>
+        <v>-21.88422645146416</v>
       </c>
       <c r="F33" t="n">
-        <v>1.130152470665858</v>
+        <v>1.190893491980409</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.758054952688567</v>
+        <v>-4.731703205675895</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>7.003047015563337</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.64849320736213</v>
+        <v>-21.57984666194377</v>
       </c>
       <c r="F34" t="n">
-        <v>1.265265064439919</v>
+        <v>1.378162011010719</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.813501179566249</v>
+        <v>-4.710763589264898</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>6.985854350351742</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.12379521239108</v>
+        <v>-21.03955762407413</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7697935525192907</v>
+        <v>0.8039774885327601</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.835413708343762</v>
+        <v>-4.817187490743903</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>6.972495090054848</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.65853287390112</v>
+        <v>-20.56602308596535</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5359474650678818</v>
+        <v>0.565374397399843</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.202323895691995</v>
+        <v>-5.231574823776747</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>6.95989680855438</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.31718730345998</v>
+        <v>-20.23885563543827</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6230989014775077</v>
+        <v>0.6496657647923235</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.52582223750324</v>
+        <v>-4.43991260883781</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>6.9447023659953</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.97549950253816</v>
+        <v>-19.89049922914998</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06703303844833536</v>
+        <v>0.0578221495110676</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.217169455981165</v>
+        <v>-4.119179091347589</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>6.92545316287595</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.69780880150426</v>
+        <v>-19.70492719550249</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1288352436608782</v>
+        <v>-0.2195263210421505</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.338944839022282</v>
+        <v>-4.207836341872224</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>6.897567276052316</v>
       </c>
       <c r="E40" t="n">
-        <v>-18.84434465076065</v>
+        <v>-18.77169889772516</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6320607204724338</v>
+        <v>-0.8198914752924392</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.66392943892107</v>
+        <v>-3.442007639218066</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>6.855204873476237</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.20287761578021</v>
+        <v>-18.17041949919076</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.092820283637966</v>
+        <v>-1.37099988535856</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.4820486054581</v>
+        <v>-3.165597857983296</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>6.792870713718663</v>
       </c>
       <c r="E42" t="n">
-        <v>-17.50457098696501</v>
+        <v>-17.45906411104777</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.450847145509015</v>
+        <v>-1.79070156885574</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.683057769225658</v>
+        <v>-2.211874843419862</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>6.705106503431855</v>
       </c>
       <c r="E43" t="n">
-        <v>-16.97969698774676</v>
+        <v>-16.90802903608465</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.457344635635145</v>
+        <v>-1.799888012758674</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.154301898555072</v>
+        <v>-1.667249256459271</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>6.587457208123042</v>
       </c>
       <c r="E44" t="n">
-        <v>-16.41862478168587</v>
+        <v>-16.349078659004</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.546021442187248</v>
+        <v>-1.873096001583858</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.059557834481127</v>
+        <v>-1.516174055264732</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>6.440494288947496</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.39262504316761</v>
+        <v>-16.48259254753258</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.812452760406645</v>
+        <v>-2.209601455226747</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.023467185789561</v>
+        <v>-1.473747253673644</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>6.266561993007937</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.31296121171245</v>
+        <v>-15.32340901938705</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.901740692817113</v>
+        <v>-2.282975670285407</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.538179475172716</v>
+        <v>-0.9238219832693172</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>6.06682307908334</v>
       </c>
       <c r="E47" t="n">
-        <v>-14.86979718426094</v>
+        <v>-14.93406806853341</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.274219458986762</v>
+        <v>-2.709966863021157</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.447434618715908</v>
+        <v>-0.7659559515366335</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.842906424022354</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.11333092975693</v>
+        <v>-14.12614990576198</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.275783941184175</v>
+        <v>-2.710881107305271</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.100843143906574</v>
+        <v>-0.3621044283019911</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.596257333385494</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.15743954971023</v>
+        <v>-14.26471413838408</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.647504911289452</v>
+        <v>-3.147435197472707</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.045885817715583</v>
+        <v>-0.3126227898019449</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.327433280468895</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.513503566262</v>
+        <v>-13.58418393853699</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.033892901995474</v>
+        <v>-3.594016640724186</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.9596877376450053</v>
+        <v>-0.1369852181080254</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>5.037673894004385</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.91693717034731</v>
+        <v>-12.920144358852</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.945983669521477</v>
+        <v>-3.492911978716385</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.9497386086708333</v>
+        <v>-0.07636153295828006</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.731890933702971</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.50182137529129</v>
+        <v>-12.50993712669037</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.090590714631087</v>
+        <v>-3.637318574544452</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.8819965295228598</v>
+        <v>0.03453092079708479</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.411994367246827</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.88638830187717</v>
+        <v>-11.87435645597769</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.330376945425797</v>
+        <v>-3.963591336814888</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.208362182923767</v>
+        <v>-0.3396101077073154</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>4.080108662677074</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.18256687331609</v>
+        <v>-11.03747581652666</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.455985309850576</v>
+        <v>-4.095653190303994</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.050804158623699</v>
+        <v>-0.1381145786942828</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.738981953813481</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.53179116926104</v>
+        <v>-10.43530661874248</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.634742067925588</v>
+        <v>-4.302829745296382</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.8173394137079096</v>
+        <v>0.2134490160987042</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>3.391874390289154</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.01272531020068</v>
+        <v>-9.853035678906641</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.747243004940167</v>
+        <v>-4.398771616052721</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.4099091374466855</v>
+        <v>0.7250835847213536</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>3.041598063690775</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.518128930509233</v>
+        <v>-9.332904016349294</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.493899558103502</v>
+        <v>-4.10207734532712</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.569051199971634</v>
+        <v>0.5282815023005593</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>2.695627405677312</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.146574186637432</v>
+        <v>-8.937090020403859</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.66098136778032</v>
+        <v>-4.302497292829432</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.5123093862742191</v>
+        <v>0.6602015745905253</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>2.359231774297558</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.422776276018141</v>
+        <v>-8.166460313006391</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.881680915766595</v>
+        <v>-4.522355931634597</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.5859036066418898</v>
+        <v>0.5804080935156064</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>2.036548436749893</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.415428098697168</v>
+        <v>-8.188763962333256</v>
       </c>
       <c r="F60" t="n">
-        <v>-4.192347968117838</v>
+        <v>-4.893715115231723</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.5970309862709882</v>
+        <v>0.5843486330503399</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.730992734828679</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.31438210477177</v>
+        <v>-8.122209911853943</v>
       </c>
       <c r="F61" t="n">
-        <v>-4.167218472821896</v>
+        <v>-4.879351213056727</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.6248836583918027</v>
+        <v>0.5767657833997548</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.445428567030455</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.903901088225591</v>
+        <v>-7.693106668151686</v>
       </c>
       <c r="F62" t="n">
-        <v>-4.198664564989892</v>
+        <v>-4.917509911652997</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4190662473084172</v>
+        <v>0.8428890941865361</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.181110471697694</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.773183711624886</v>
+        <v>-7.606942811129177</v>
       </c>
       <c r="F63" t="n">
-        <v>-4.295403343865538</v>
+        <v>-4.993934866996613</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.6473046438834746</v>
+        <v>0.5392230996687148</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.9404283878212265</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.411167420150434</v>
+        <v>-7.180601856306725</v>
       </c>
       <c r="F64" t="n">
-        <v>-4.697113482092472</v>
+        <v>-5.466076038148323</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5003264304434105</v>
+        <v>0.7133108561858224</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.7253980542821478</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.44047701631759</v>
+        <v>-7.280826497078483</v>
       </c>
       <c r="F65" t="n">
-        <v>-4.527997845559017</v>
+        <v>-5.26504007578078</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3959852458897117</v>
+        <v>0.8207370040725445</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.5360111131546403</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.259319755870924</v>
+        <v>-7.0750677540775</v>
       </c>
       <c r="F66" t="n">
-        <v>-4.552697108250671</v>
+        <v>-5.307398431275731</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.8826467674361594</v>
+        <v>0.2821982306612622</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.371721083387054</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.028817749116484</v>
+        <v>-6.792336486963809</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.791363756472858</v>
+        <v>-5.569747428761255</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.9333017675842653</v>
+        <v>0.2027518690738943</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2313764618323278</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.17004160147419</v>
+        <v>-6.97741473091774</v>
       </c>
       <c r="F68" t="n">
-        <v>-4.851738102272391</v>
+        <v>-5.624861203171986</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.9941845700979571</v>
+        <v>0.06891530609209762</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1131574469357014</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.213832435981146</v>
+        <v>-7.050925838168673</v>
       </c>
       <c r="F69" t="n">
-        <v>-4.652589296555478</v>
+        <v>-5.357124520119123</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5823786326908441</v>
+        <v>0.5225320302250672</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.01485424590113307</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.202069485459349</v>
+        <v>-7.061241642657865</v>
       </c>
       <c r="F70" t="n">
-        <v>-4.593275865246065</v>
+        <v>-5.276495018869961</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.8132179809191002</v>
+        <v>0.2511921491112876</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06441316858945197</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.286795974462986</v>
+        <v>-7.109804147866931</v>
       </c>
       <c r="F71" t="n">
-        <v>-4.87738094328936</v>
+        <v>-5.604439821488882</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5999741684048711</v>
+        <v>0.4671640274572554</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1265998675161618</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.515709053985677</v>
+        <v>-7.371473573397952</v>
       </c>
       <c r="F72" t="n">
-        <v>-4.912283563312266</v>
+        <v>-5.643942996973555</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7973042635672921</v>
+        <v>0.1750800902071557</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1733057661591982</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.689073237486481</v>
+        <v>-7.577818997222964</v>
       </c>
       <c r="F73" t="n">
-        <v>-5.01260598422136</v>
+        <v>-5.764369014119405</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7467421545496578</v>
+        <v>0.2410425708555722</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2058560136165472</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.670182114952722</v>
+        <v>-7.508052869232088</v>
       </c>
       <c r="F74" t="n">
-        <v>-5.098618282030995</v>
+        <v>-5.858467729286916</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4293771627907408</v>
+        <v>0.5272401438379063</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2253651594201266</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.234657069792988</v>
+        <v>-8.095266595010376</v>
       </c>
       <c r="F75" t="n">
-        <v>-5.346197589771568</v>
+        <v>-6.10075224259062</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4010649240244363</v>
+        <v>0.5583880065870215</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2324726794564078</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.612860863003794</v>
+        <v>-8.54291873076571</v>
       </c>
       <c r="F76" t="n">
-        <v>-5.395904122587492</v>
+        <v>-6.166308935669083</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2813233678399554</v>
+        <v>0.6539729798420756</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2268576356108187</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.194921575544354</v>
+        <v>-9.136786394889867</v>
       </c>
       <c r="F77" t="n">
-        <v>-5.224720436149332</v>
+        <v>-5.93199350355845</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.04550701062117983</v>
+        <v>0.9069448621568558</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2082370746161609</v>
       </c>
       <c r="E78" t="n">
-        <v>-10.10778227071411</v>
+        <v>-10.19027448357957</v>
       </c>
       <c r="F78" t="n">
-        <v>-5.776708867451497</v>
+        <v>-6.622697726695593</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2769718823205302</v>
+        <v>1.262087209976424</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.175995601718494</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.03313437842884</v>
+        <v>-11.14349393043571</v>
       </c>
       <c r="F79" t="n">
-        <v>-5.953534467814078</v>
+        <v>-6.819216246718106</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6129053221599901</v>
+        <v>1.596754397037353</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1295892004725217</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.80811041293099</v>
+        <v>-11.97418508719323</v>
       </c>
       <c r="F80" t="n">
-        <v>-6.036129349823739</v>
+        <v>-6.919866231087284</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9003202578521861</v>
+        <v>1.906208975685602</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.06912089925367325</v>
       </c>
       <c r="E81" t="n">
-        <v>-12.9792377848524</v>
+        <v>-13.24559087896193</v>
       </c>
       <c r="F81" t="n">
-        <v>-5.780092060203403</v>
+        <v>-6.60740980222275</v>
       </c>
       <c r="G81" t="n">
-        <v>1.145953740859727</v>
+        <v>2.132853556022045</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.005008584593986962</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.8455306896148</v>
+        <v>-14.13778574210524</v>
       </c>
       <c r="F82" t="n">
-        <v>-5.899545164982736</v>
+        <v>-6.723469936236445</v>
       </c>
       <c r="G82" t="n">
-        <v>1.156680221925738</v>
+        <v>2.13051661073966</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.09196781625994696</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.7297760275925</v>
+        <v>-15.04190489299695</v>
       </c>
       <c r="F83" t="n">
-        <v>-6.283312648008091</v>
+        <v>-7.183941047996829</v>
       </c>
       <c r="G83" t="n">
-        <v>1.186009374120361</v>
+        <v>2.123544886947439</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1901594272347393</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.45926220676366</v>
+        <v>-16.91368561702967</v>
       </c>
       <c r="F84" t="n">
-        <v>-6.168797440164343</v>
+        <v>-7.050759611935199</v>
       </c>
       <c r="G84" t="n">
-        <v>1.053443952923962</v>
+        <v>1.920983554437419</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2978389451004342</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.74760351831936</v>
+        <v>-18.26655693022178</v>
       </c>
       <c r="F85" t="n">
-        <v>-5.999148901882394</v>
+        <v>-6.84481997568014</v>
       </c>
       <c r="G85" t="n">
-        <v>1.251683403363629</v>
+        <v>2.120367032483944</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.4131602193838025</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.32906523658093</v>
+        <v>-19.93307758995394</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.727828576796082</v>
+        <v>-6.522365527772765</v>
       </c>
       <c r="G86" t="n">
-        <v>1.071371941104939</v>
+        <v>1.879079876581091</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.5340105389240059</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.66815932842207</v>
+        <v>-21.27547176143025</v>
       </c>
       <c r="F87" t="n">
-        <v>-5.798988071744029</v>
+        <v>-6.587511544274406</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8023250042117428</v>
+        <v>1.518305392850836</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.6581730324859608</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.15732637505003</v>
+        <v>-22.77632353447013</v>
       </c>
       <c r="F88" t="n">
-        <v>-5.789464286367279</v>
+        <v>-6.571754275142339</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3036169697452166</v>
+        <v>0.9887623920746774</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.7844927812057625</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.93915915074525</v>
+        <v>-24.65617111983326</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.71722920990861</v>
+        <v>-6.496703130728328</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1133419808996247</v>
+        <v>0.4473293265981815</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.9117493347995368</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.44617596144432</v>
+        <v>-26.11960243431378</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.437098894448118</v>
+        <v>-6.188387690680071</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4798219356435692</v>
+        <v>0.02213728838945539</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.038960540697657</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.13045349411712</v>
+        <v>-27.84129798104252</v>
       </c>
       <c r="F91" t="n">
-        <v>-4.922438030574848</v>
+        <v>-5.544305037025829</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7230402492588541</v>
+        <v>-0.2869212807025731</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.165361751695246</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.84929874984244</v>
+        <v>-29.50495857175754</v>
       </c>
       <c r="F92" t="n">
-        <v>-4.433033776176061</v>
+        <v>-4.93519344949063</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.1925902467711</v>
+        <v>-0.8164985045268003</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.289966404023795</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.73718875150165</v>
+        <v>-31.40296637312782</v>
       </c>
       <c r="F93" t="n">
-        <v>-4.164514852024491</v>
+        <v>-4.622531682337685</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.91718017650283</v>
+        <v>-1.62935945324068</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.410684319310163</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.54066760510013</v>
+        <v>-33.15156856914862</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.386656657036506</v>
+        <v>-4.853429698648344</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.100948166616429</v>
+        <v>-1.805334366408417</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.526923782864231</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.87128895710313</v>
+        <v>-35.50082192632143</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.812721473908759</v>
+        <v>-4.143125446981738</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.63571751573332</v>
+        <v>-2.38452034291123</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>1.637316499483592</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.80407470882121</v>
+        <v>-37.40194402506594</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.459153386300337</v>
+        <v>-3.670158033669519</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.276720095061406</v>
+        <v>-3.146247168804047</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>1.740465503126297</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.76469602113608</v>
+        <v>-39.3433197618492</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.407139242243229</v>
+        <v>-3.585299541480476</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.911577192757779</v>
+        <v>-3.848220552769429</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>1.834997044775723</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.97134682601471</v>
+        <v>-41.56872724157274</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.327707547676462</v>
+        <v>-3.441777855895321</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.043810161487228</v>
+        <v>-3.978307247484302</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.92012655593845</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.80804648127388</v>
+        <v>-43.33116043802005</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.885887997113358</v>
+        <v>-2.896120688485811</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.188392761562504</v>
+        <v>-4.150654517556787</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.994366657259027</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.06954705419243</v>
+        <v>-45.57513147681727</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.889774757572555</v>
+        <v>-2.875014845841339</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.838889792226139</v>
+        <v>-4.877791619866181</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.057617368920229</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.04924160454685</v>
+        <v>-47.52388961396957</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.530129634428558</v>
+        <v>-2.434955337750325</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.164321645315465</v>
+        <v>-5.201737214867965</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.110110286287031</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.76380277706726</v>
+        <v>-50.30376058472166</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.123452265224839</v>
+        <v>-1.900073541475495</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.362732210995475</v>
+        <v>-5.422378094771837</v>
       </c>
     </row>
   </sheetData>
